--- a/pred_ohlcv/54/2019-10-21 BCD ohlcv.xlsx
+++ b/pred_ohlcv/54/2019-10-21 BCD ohlcv.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H166"/>
+  <dimension ref="A1:I146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,7 +399,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>high_check</t>
         </is>
       </c>
     </row>
@@ -408,24 +413,27 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="C2" t="n">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D2" t="n">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="E2" t="n">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="F2" t="n">
-        <v>2099.2832</v>
+        <v>3060.4</v>
       </c>
       <c r="G2" t="n">
-        <v>545.1166666666667</v>
+        <v>545</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -446,12 +454,15 @@
         <v>550</v>
       </c>
       <c r="F3" t="n">
-        <v>919.2763</v>
+        <v>2099.2832</v>
       </c>
       <c r="G3" t="n">
-        <v>545.25</v>
+        <v>545.1166666666667</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -463,21 +474,24 @@
         <v>550</v>
       </c>
       <c r="C4" t="n">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D4" t="n">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="E4" t="n">
         <v>550</v>
       </c>
       <c r="F4" t="n">
-        <v>360.108</v>
+        <v>919.2763</v>
       </c>
       <c r="G4" t="n">
-        <v>545.2166666666667</v>
+        <v>545.25</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -498,12 +512,15 @@
         <v>550</v>
       </c>
       <c r="F5" t="n">
-        <v>1119.272</v>
+        <v>360.108</v>
       </c>
       <c r="G5" t="n">
-        <v>545.2833333333333</v>
+        <v>545.2166666666667</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -512,24 +529,27 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C6" t="n">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D6" t="n">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E6" t="n">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F6" t="n">
-        <v>890</v>
+        <v>1119.272</v>
       </c>
       <c r="G6" t="n">
-        <v>545.3833333333333</v>
+        <v>545.2833333333333</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -538,24 +558,27 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C7" t="n">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D7" t="n">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="E7" t="n">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="F7" t="n">
-        <v>698.9098</v>
+        <v>890</v>
       </c>
       <c r="G7" t="n">
-        <v>545.4833333333333</v>
+        <v>545.3833333333333</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -564,24 +587,27 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="C8" t="n">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="D8" t="n">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="E8" t="n">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="F8" t="n">
-        <v>4.6537</v>
+        <v>698.9098</v>
       </c>
       <c r="G8" t="n">
-        <v>545.5333333333333</v>
+        <v>545.4833333333333</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -590,24 +616,27 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="C9" t="n">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="D9" t="n">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="E9" t="n">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="F9" t="n">
-        <v>4.04</v>
+        <v>4.6537</v>
       </c>
       <c r="G9" t="n">
-        <v>545.5666666666667</v>
+        <v>545.5333333333333</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -616,24 +645,27 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="C10" t="n">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="D10" t="n">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="E10" t="n">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="F10" t="n">
-        <v>1.0027</v>
+        <v>4.04</v>
       </c>
       <c r="G10" t="n">
-        <v>545.6166666666667</v>
+        <v>545.5666666666667</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -642,24 +674,27 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="C11" t="n">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D11" t="n">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E11" t="n">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="F11" t="n">
-        <v>20.5266</v>
+        <v>1.0027</v>
       </c>
       <c r="G11" t="n">
-        <v>545.7</v>
+        <v>545.6166666666667</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -668,7 +703,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="C12" t="n">
         <v>548</v>
@@ -677,15 +712,18 @@
         <v>548</v>
       </c>
       <c r="E12" t="n">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="F12" t="n">
-        <v>210.8572</v>
+        <v>20.5266</v>
       </c>
       <c r="G12" t="n">
-        <v>545.7833333333333</v>
+        <v>545.7</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -697,21 +735,24 @@
         <v>548</v>
       </c>
       <c r="C13" t="n">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="D13" t="n">
         <v>548</v>
       </c>
       <c r="E13" t="n">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="F13" t="n">
-        <v>2290.2892</v>
+        <v>210.8572</v>
       </c>
       <c r="G13" t="n">
-        <v>545.8166666666667</v>
+        <v>545.7833333333333</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -720,24 +761,27 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C14" t="n">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="D14" t="n">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E14" t="n">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="F14" t="n">
-        <v>2283.3311</v>
+        <v>2290.2892</v>
       </c>
       <c r="G14" t="n">
-        <v>545.9166666666666</v>
+        <v>545.8166666666667</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -749,21 +793,24 @@
         <v>549</v>
       </c>
       <c r="C15" t="n">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="D15" t="n">
         <v>549</v>
       </c>
       <c r="E15" t="n">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="F15" t="n">
-        <v>1474.9576</v>
+        <v>2283.3311</v>
       </c>
       <c r="G15" t="n">
-        <v>545.95</v>
+        <v>545.9166666666666</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -772,24 +819,27 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="C16" t="n">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D16" t="n">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="E16" t="n">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="F16" t="n">
-        <v>0.19449542</v>
+        <v>1474.9576</v>
       </c>
       <c r="G16" t="n">
-        <v>545.9166666666666</v>
+        <v>545.95</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -798,24 +848,27 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="C17" t="n">
         <v>546</v>
       </c>
       <c r="D17" t="n">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="E17" t="n">
         <v>546</v>
       </c>
       <c r="F17" t="n">
-        <v>4413.1577</v>
+        <v>0.19449542</v>
       </c>
       <c r="G17" t="n">
-        <v>545.9666666666667</v>
+        <v>545.9166666666666</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -824,24 +877,27 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="C18" t="n">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D18" t="n">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="E18" t="n">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F18" t="n">
-        <v>202.6002</v>
+        <v>4413.1577</v>
       </c>
       <c r="G18" t="n">
-        <v>546.0333333333333</v>
+        <v>545.9666666666667</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -853,21 +909,24 @@
         <v>547</v>
       </c>
       <c r="C19" t="n">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D19" t="n">
         <v>547</v>
       </c>
       <c r="E19" t="n">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="F19" t="n">
-        <v>1672.3197</v>
+        <v>202.6002</v>
       </c>
       <c r="G19" t="n">
-        <v>546.1</v>
+        <v>546.0333333333333</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -888,12 +947,15 @@
         <v>546</v>
       </c>
       <c r="F20" t="n">
-        <v>1266.809</v>
+        <v>1672.3197</v>
       </c>
       <c r="G20" t="n">
-        <v>546.15</v>
+        <v>546.1</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -902,24 +964,27 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C21" t="n">
         <v>546</v>
       </c>
       <c r="D21" t="n">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E21" t="n">
         <v>546</v>
       </c>
       <c r="F21" t="n">
-        <v>242.0726</v>
+        <v>1266.809</v>
       </c>
       <c r="G21" t="n">
-        <v>546.2333333333333</v>
+        <v>546.15</v>
       </c>
       <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -940,12 +1005,15 @@
         <v>546</v>
       </c>
       <c r="F22" t="n">
-        <v>298.0286</v>
+        <v>242.0726</v>
       </c>
       <c r="G22" t="n">
-        <v>546.2833333333333</v>
+        <v>546.2333333333333</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -966,12 +1034,15 @@
         <v>546</v>
       </c>
       <c r="F23" t="n">
-        <v>268.9176</v>
+        <v>298.0286</v>
       </c>
       <c r="G23" t="n">
-        <v>546.3333333333334</v>
+        <v>546.2833333333333</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -992,12 +1063,15 @@
         <v>546</v>
       </c>
       <c r="F24" t="n">
-        <v>4.4574</v>
+        <v>268.9176</v>
       </c>
       <c r="G24" t="n">
-        <v>546.3833333333333</v>
+        <v>546.3333333333334</v>
       </c>
       <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1018,12 +1092,15 @@
         <v>546</v>
       </c>
       <c r="F25" t="n">
-        <v>6.5426</v>
+        <v>4.4574</v>
       </c>
       <c r="G25" t="n">
-        <v>546.4</v>
+        <v>546.3833333333333</v>
       </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1032,24 +1109,27 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="C26" t="n">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="D26" t="n">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="E26" t="n">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="F26" t="n">
-        <v>23.5241</v>
+        <v>6.5426</v>
       </c>
       <c r="G26" t="n">
         <v>546.4</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1058,24 +1138,27 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="C27" t="n">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="D27" t="n">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="E27" t="n">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F27" t="n">
-        <v>1121.3363</v>
+        <v>23.5241</v>
       </c>
       <c r="G27" t="n">
-        <v>546.4666666666667</v>
+        <v>546.4</v>
       </c>
       <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1084,24 +1167,27 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C28" t="n">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="D28" t="n">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="E28" t="n">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="F28" t="n">
-        <v>1311.4199</v>
+        <v>1121.3363</v>
       </c>
       <c r="G28" t="n">
         <v>546.4666666666667</v>
       </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1113,21 +1199,24 @@
         <v>546</v>
       </c>
       <c r="C29" t="n">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D29" t="n">
         <v>546</v>
       </c>
       <c r="E29" t="n">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="F29" t="n">
-        <v>693.7644</v>
+        <v>1311.4199</v>
       </c>
       <c r="G29" t="n">
-        <v>546.4833333333333</v>
+        <v>546.4666666666667</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1148,12 +1237,15 @@
         <v>546</v>
       </c>
       <c r="F30" t="n">
-        <v>177.0531</v>
+        <v>693.7644</v>
       </c>
       <c r="G30" t="n">
-        <v>546.5166666666667</v>
+        <v>546.4833333333333</v>
       </c>
       <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1177,9 +1269,12 @@
         <v>177.0531</v>
       </c>
       <c r="G31" t="n">
-        <v>546.5</v>
+        <v>546.5166666666667</v>
       </c>
       <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1200,12 +1295,15 @@
         <v>546</v>
       </c>
       <c r="F32" t="n">
-        <v>1035.3105</v>
+        <v>177.0531</v>
       </c>
       <c r="G32" t="n">
-        <v>546.4833333333333</v>
+        <v>546.5</v>
       </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1214,24 +1312,27 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C33" t="n">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D33" t="n">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="E33" t="n">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="F33" t="n">
-        <v>5.5045</v>
+        <v>1035.3105</v>
       </c>
       <c r="G33" t="n">
-        <v>546.45</v>
+        <v>546.4833333333333</v>
       </c>
       <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1240,24 +1341,27 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C34" t="n">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D34" t="n">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="E34" t="n">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="F34" t="n">
-        <v>123.6342</v>
+        <v>5.5045</v>
       </c>
       <c r="G34" t="n">
-        <v>546.4</v>
+        <v>546.45</v>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1266,24 +1370,27 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C35" t="n">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D35" t="n">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E35" t="n">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="F35" t="n">
-        <v>716.8605</v>
+        <v>123.6342</v>
       </c>
       <c r="G35" t="n">
-        <v>546.35</v>
+        <v>546.4</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1304,12 +1411,15 @@
         <v>545</v>
       </c>
       <c r="F36" t="n">
-        <v>303.3397</v>
+        <v>716.8605</v>
       </c>
       <c r="G36" t="n">
-        <v>546.3</v>
+        <v>546.35</v>
       </c>
       <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1330,12 +1440,15 @@
         <v>545</v>
       </c>
       <c r="F37" t="n">
-        <v>83.46259999999999</v>
+        <v>303.3397</v>
       </c>
       <c r="G37" t="n">
-        <v>546.2166666666667</v>
+        <v>546.3</v>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1347,21 +1460,24 @@
         <v>545</v>
       </c>
       <c r="C38" t="n">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="D38" t="n">
         <v>545</v>
       </c>
       <c r="E38" t="n">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="F38" t="n">
-        <v>179.1701</v>
+        <v>83.46259999999999</v>
       </c>
       <c r="G38" t="n">
-        <v>546.0666666666667</v>
+        <v>546.2166666666667</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1370,24 +1486,27 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="C39" t="n">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D39" t="n">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="E39" t="n">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="F39" t="n">
-        <v>3130.4621</v>
+        <v>179.1701</v>
       </c>
       <c r="G39" t="n">
-        <v>545.95</v>
+        <v>546.0666666666667</v>
       </c>
       <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1399,21 +1518,24 @@
         <v>543</v>
       </c>
       <c r="C40" t="n">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D40" t="n">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E40" t="n">
         <v>543</v>
       </c>
       <c r="F40" t="n">
-        <v>557.1521</v>
+        <v>3130.4621</v>
       </c>
       <c r="G40" t="n">
-        <v>545.85</v>
+        <v>545.95</v>
       </c>
       <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1425,21 +1547,24 @@
         <v>543</v>
       </c>
       <c r="C41" t="n">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D41" t="n">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="E41" t="n">
         <v>543</v>
       </c>
       <c r="F41" t="n">
-        <v>761.1503</v>
+        <v>557.1521</v>
       </c>
       <c r="G41" t="n">
-        <v>545.7</v>
+        <v>545.85</v>
       </c>
       <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1448,24 +1573,27 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C42" t="n">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D42" t="n">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="E42" t="n">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="F42" t="n">
-        <v>1269.6508</v>
+        <v>761.1503</v>
       </c>
       <c r="G42" t="n">
-        <v>545.5666666666667</v>
+        <v>545.7</v>
       </c>
       <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1474,24 +1602,27 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C43" t="n">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D43" t="n">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="E43" t="n">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="F43" t="n">
-        <v>1281.2455</v>
+        <v>1269.6508</v>
       </c>
       <c r="G43" t="n">
-        <v>545.4833333333333</v>
+        <v>545.5666666666667</v>
       </c>
       <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1512,12 +1643,15 @@
         <v>541</v>
       </c>
       <c r="F44" t="n">
-        <v>259.5257</v>
+        <v>1281.2455</v>
       </c>
       <c r="G44" t="n">
-        <v>545.4</v>
+        <v>545.4833333333333</v>
       </c>
       <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1526,24 +1660,27 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="C45" t="n">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="D45" t="n">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="E45" t="n">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="F45" t="n">
-        <v>817.2451</v>
+        <v>259.5257</v>
       </c>
       <c r="G45" t="n">
-        <v>545.35</v>
+        <v>545.4</v>
       </c>
       <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1552,7 +1689,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C46" t="n">
         <v>544</v>
@@ -1561,15 +1698,18 @@
         <v>544</v>
       </c>
       <c r="E46" t="n">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="F46" t="n">
-        <v>180</v>
+        <v>817.2451</v>
       </c>
       <c r="G46" t="n">
-        <v>545.3166666666667</v>
+        <v>545.35</v>
       </c>
       <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1578,7 +1718,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C47" t="n">
         <v>544</v>
@@ -1587,15 +1727,18 @@
         <v>544</v>
       </c>
       <c r="E47" t="n">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F47" t="n">
-        <v>531.4108</v>
+        <v>180</v>
       </c>
       <c r="G47" t="n">
-        <v>545.3</v>
+        <v>545.3166666666667</v>
       </c>
       <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1604,24 +1747,27 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="C48" t="n">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="D48" t="n">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="E48" t="n">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="F48" t="n">
-        <v>1036.0144</v>
+        <v>531.4108</v>
       </c>
       <c r="G48" t="n">
-        <v>545.2666666666667</v>
+        <v>545.3</v>
       </c>
       <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1633,21 +1779,24 @@
         <v>542</v>
       </c>
       <c r="C49" t="n">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D49" t="n">
         <v>542</v>
       </c>
       <c r="E49" t="n">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="F49" t="n">
-        <v>226.9073</v>
+        <v>1036.0144</v>
       </c>
       <c r="G49" t="n">
-        <v>545.2166666666667</v>
+        <v>545.2666666666667</v>
       </c>
       <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1656,24 +1805,27 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C50" t="n">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D50" t="n">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E50" t="n">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="F50" t="n">
-        <v>814.2442</v>
+        <v>226.9073</v>
       </c>
       <c r="G50" t="n">
-        <v>545.2333333333333</v>
+        <v>545.2166666666667</v>
       </c>
       <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1694,12 +1846,15 @@
         <v>543</v>
       </c>
       <c r="F51" t="n">
-        <v>378.1134</v>
+        <v>814.2442</v>
       </c>
       <c r="G51" t="n">
-        <v>545.25</v>
+        <v>545.2333333333333</v>
       </c>
       <c r="H51" t="n">
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1711,21 +1866,24 @@
         <v>543</v>
       </c>
       <c r="C52" t="n">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="D52" t="n">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="E52" t="n">
         <v>543</v>
       </c>
       <c r="F52" t="n">
-        <v>7900.7726</v>
+        <v>378.1134</v>
       </c>
       <c r="G52" t="n">
-        <v>545.4</v>
+        <v>545.25</v>
       </c>
       <c r="H52" t="n">
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1734,24 +1892,27 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C53" t="n">
-        <v>544</v>
+        <v>551</v>
       </c>
       <c r="D53" t="n">
-        <v>544</v>
+        <v>551</v>
       </c>
       <c r="E53" t="n">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F53" t="n">
-        <v>34.3658</v>
+        <v>7900.7726</v>
       </c>
       <c r="G53" t="n">
-        <v>545.4333333333333</v>
+        <v>545.4</v>
       </c>
       <c r="H53" t="n">
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1772,12 +1933,15 @@
         <v>544</v>
       </c>
       <c r="F54" t="n">
-        <v>76.3342</v>
+        <v>34.3658</v>
       </c>
       <c r="G54" t="n">
         <v>545.4333333333333</v>
       </c>
       <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1798,12 +1962,15 @@
         <v>544</v>
       </c>
       <c r="F55" t="n">
-        <v>55.4</v>
+        <v>76.3342</v>
       </c>
       <c r="G55" t="n">
-        <v>545.4833333333333</v>
+        <v>545.4333333333333</v>
       </c>
       <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1815,21 +1982,24 @@
         <v>544</v>
       </c>
       <c r="C56" t="n">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="D56" t="n">
         <v>544</v>
       </c>
       <c r="E56" t="n">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="F56" t="n">
-        <v>1731.6089</v>
+        <v>55.4</v>
       </c>
       <c r="G56" t="n">
-        <v>545.5166666666667</v>
+        <v>545.4833333333333</v>
       </c>
       <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1838,24 +2008,27 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="C57" t="n">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="D57" t="n">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="E57" t="n">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="F57" t="n">
-        <v>1</v>
+        <v>1731.6089</v>
       </c>
       <c r="G57" t="n">
-        <v>545.5833333333334</v>
+        <v>545.5166666666667</v>
       </c>
       <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1867,21 +2040,24 @@
         <v>547</v>
       </c>
       <c r="C58" t="n">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D58" t="n">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E58" t="n">
         <v>547</v>
       </c>
       <c r="F58" t="n">
-        <v>560</v>
+        <v>1</v>
       </c>
       <c r="G58" t="n">
-        <v>545.6666666666666</v>
+        <v>545.5833333333334</v>
       </c>
       <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1890,24 +2066,27 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="C59" t="n">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="D59" t="n">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="E59" t="n">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="F59" t="n">
-        <v>560.1697</v>
+        <v>560</v>
       </c>
       <c r="G59" t="n">
-        <v>545.65</v>
+        <v>545.6666666666666</v>
       </c>
       <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1916,24 +2095,27 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
+        <v>544</v>
+      </c>
+      <c r="C60" t="n">
         <v>543</v>
       </c>
-      <c r="C60" t="n">
-        <v>542</v>
-      </c>
       <c r="D60" t="n">
+        <v>544</v>
+      </c>
+      <c r="E60" t="n">
         <v>543</v>
       </c>
-      <c r="E60" t="n">
-        <v>542</v>
-      </c>
       <c r="F60" t="n">
-        <v>480.5287</v>
+        <v>560.1697</v>
       </c>
       <c r="G60" t="n">
-        <v>545.5833333333334</v>
+        <v>545.65</v>
       </c>
       <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1942,24 +2124,27 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C61" t="n">
         <v>542</v>
       </c>
       <c r="D61" t="n">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="E61" t="n">
         <v>542</v>
       </c>
       <c r="F61" t="n">
-        <v>336</v>
+        <v>480.5287</v>
       </c>
       <c r="G61" t="n">
-        <v>545.4666666666667</v>
+        <v>545.5833333333334</v>
       </c>
       <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1968,24 +2153,27 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C62" t="n">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D62" t="n">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="E62" t="n">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="F62" t="n">
-        <v>2750.744</v>
+        <v>336</v>
       </c>
       <c r="G62" t="n">
-        <v>545.3</v>
+        <v>545.4666666666667</v>
       </c>
       <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2006,12 +2194,15 @@
         <v>541</v>
       </c>
       <c r="F63" t="n">
-        <v>488</v>
+        <v>2750.744</v>
       </c>
       <c r="G63" t="n">
-        <v>545.1333333333333</v>
+        <v>545.3</v>
       </c>
       <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2020,24 +2211,27 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C64" t="n">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D64" t="n">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="E64" t="n">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="F64" t="n">
-        <v>2150.5747</v>
+        <v>488</v>
       </c>
       <c r="G64" t="n">
-        <v>544.9666666666667</v>
+        <v>545.1333333333333</v>
       </c>
       <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2058,12 +2252,15 @@
         <v>540</v>
       </c>
       <c r="F65" t="n">
-        <v>488.6602</v>
+        <v>2150.5747</v>
       </c>
       <c r="G65" t="n">
-        <v>544.8</v>
+        <v>544.9666666666667</v>
       </c>
       <c r="H65" t="n">
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2084,12 +2281,15 @@
         <v>540</v>
       </c>
       <c r="F66" t="n">
-        <v>216</v>
+        <v>488.6602</v>
       </c>
       <c r="G66" t="n">
-        <v>544.6166666666667</v>
+        <v>544.8</v>
       </c>
       <c r="H66" t="n">
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2110,12 +2310,15 @@
         <v>540</v>
       </c>
       <c r="F67" t="n">
-        <v>537.3499</v>
+        <v>216</v>
       </c>
       <c r="G67" t="n">
-        <v>544.45</v>
+        <v>544.6166666666667</v>
       </c>
       <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2136,12 +2339,15 @@
         <v>540</v>
       </c>
       <c r="F68" t="n">
-        <v>1317.4421</v>
+        <v>537.3499</v>
       </c>
       <c r="G68" t="n">
-        <v>544.35</v>
+        <v>544.45</v>
       </c>
       <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2150,24 +2356,27 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C69" t="n">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="D69" t="n">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="E69" t="n">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="F69" t="n">
-        <v>720</v>
+        <v>1317.4421</v>
       </c>
       <c r="G69" t="n">
-        <v>544.15</v>
+        <v>544.35</v>
       </c>
       <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2176,24 +2385,27 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C70" t="n">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="D70" t="n">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E70" t="n">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="F70" t="n">
-        <v>35.8338</v>
+        <v>720</v>
       </c>
       <c r="G70" t="n">
-        <v>544.0833333333334</v>
+        <v>544.15</v>
       </c>
       <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2202,24 +2414,27 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="C71" t="n">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="D71" t="n">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="E71" t="n">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="F71" t="n">
-        <v>3.4572</v>
+        <v>35.8338</v>
       </c>
       <c r="G71" t="n">
-        <v>544.0333333333333</v>
+        <v>544.0833333333334</v>
       </c>
       <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2240,12 +2455,15 @@
         <v>545</v>
       </c>
       <c r="F72" t="n">
-        <v>305.633</v>
+        <v>3.4572</v>
       </c>
       <c r="G72" t="n">
-        <v>543.9833333333333</v>
+        <v>544.0333333333333</v>
       </c>
       <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2257,21 +2475,24 @@
         <v>545</v>
       </c>
       <c r="C73" t="n">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D73" t="n">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E73" t="n">
         <v>545</v>
       </c>
       <c r="F73" t="n">
-        <v>2731.4086</v>
+        <v>305.633</v>
       </c>
       <c r="G73" t="n">
-        <v>544</v>
+        <v>543.9833333333333</v>
       </c>
       <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2280,24 +2501,27 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C74" t="n">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D74" t="n">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E74" t="n">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="F74" t="n">
-        <v>3086.0266</v>
+        <v>2731.4086</v>
       </c>
       <c r="G74" t="n">
-        <v>543.9833333333333</v>
+        <v>544</v>
       </c>
       <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2306,24 +2530,27 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
+        <v>546</v>
+      </c>
+      <c r="C75" t="n">
         <v>548</v>
       </c>
-      <c r="C75" t="n">
-        <v>549</v>
-      </c>
       <c r="D75" t="n">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E75" t="n">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F75" t="n">
-        <v>1992.2775</v>
+        <v>3086.0266</v>
       </c>
       <c r="G75" t="n">
-        <v>544.05</v>
+        <v>543.9833333333333</v>
       </c>
       <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2332,24 +2559,27 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
+        <v>548</v>
+      </c>
+      <c r="C76" t="n">
         <v>549</v>
       </c>
-      <c r="C76" t="n">
+      <c r="D76" t="n">
         <v>550</v>
       </c>
-      <c r="D76" t="n">
-        <v>551</v>
-      </c>
       <c r="E76" t="n">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="F76" t="n">
-        <v>5621.0185</v>
+        <v>1992.2775</v>
       </c>
       <c r="G76" t="n">
-        <v>544.1166666666667</v>
+        <v>544.05</v>
       </c>
       <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2358,24 +2588,27 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C77" t="n">
         <v>550</v>
       </c>
       <c r="D77" t="n">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="E77" t="n">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F77" t="n">
-        <v>251.6327</v>
+        <v>5621.0185</v>
       </c>
       <c r="G77" t="n">
-        <v>544.1833333333333</v>
+        <v>544.1166666666667</v>
       </c>
       <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2387,21 +2620,24 @@
         <v>550</v>
       </c>
       <c r="C78" t="n">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D78" t="n">
         <v>550</v>
       </c>
       <c r="E78" t="n">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="F78" t="n">
-        <v>483.9135</v>
+        <v>251.6327</v>
       </c>
       <c r="G78" t="n">
-        <v>544.2166666666667</v>
+        <v>544.1833333333333</v>
       </c>
       <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2410,24 +2646,27 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C79" t="n">
+        <v>549</v>
+      </c>
+      <c r="D79" t="n">
         <v>550</v>
       </c>
-      <c r="D79" t="n">
-        <v>551</v>
-      </c>
       <c r="E79" t="n">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F79" t="n">
-        <v>809.9646</v>
+        <v>483.9135</v>
       </c>
       <c r="G79" t="n">
-        <v>544.2833333333333</v>
+        <v>544.2166666666667</v>
       </c>
       <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2436,24 +2675,27 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="C80" t="n">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D80" t="n">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="E80" t="n">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="F80" t="n">
-        <v>18.255</v>
+        <v>809.9646</v>
       </c>
       <c r="G80" t="n">
-        <v>544.3333333333334</v>
+        <v>544.2833333333333</v>
       </c>
       <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2465,21 +2707,24 @@
         <v>549</v>
       </c>
       <c r="C81" t="n">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D81" t="n">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E81" t="n">
         <v>549</v>
       </c>
       <c r="F81" t="n">
-        <v>1292.7727</v>
+        <v>18.255</v>
       </c>
       <c r="G81" t="n">
-        <v>544.4</v>
+        <v>544.3333333333334</v>
       </c>
       <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2491,21 +2736,24 @@
         <v>549</v>
       </c>
       <c r="C82" t="n">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D82" t="n">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="E82" t="n">
         <v>549</v>
       </c>
       <c r="F82" t="n">
-        <v>27.2276</v>
+        <v>1292.7727</v>
       </c>
       <c r="G82" t="n">
-        <v>544.45</v>
+        <v>544.4</v>
       </c>
       <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2514,24 +2762,27 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="C83" t="n">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="D83" t="n">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E83" t="n">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="F83" t="n">
-        <v>594.1499</v>
+        <v>27.2276</v>
       </c>
       <c r="G83" t="n">
-        <v>544.4666666666667</v>
+        <v>544.45</v>
       </c>
       <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2540,24 +2791,27 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C84" t="n">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D84" t="n">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E84" t="n">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="F84" t="n">
-        <v>516.5</v>
+        <v>594.1499</v>
       </c>
       <c r="G84" t="n">
         <v>544.4666666666667</v>
       </c>
       <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2569,21 +2823,24 @@
         <v>546</v>
       </c>
       <c r="C85" t="n">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="D85" t="n">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="E85" t="n">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="F85" t="n">
-        <v>6796.3016</v>
+        <v>516.5</v>
       </c>
       <c r="G85" t="n">
-        <v>544.5166666666667</v>
+        <v>544.4666666666667</v>
       </c>
       <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2592,24 +2849,27 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="C86" t="n">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D86" t="n">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="E86" t="n">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="F86" t="n">
-        <v>1889.7368</v>
+        <v>6796.3016</v>
       </c>
       <c r="G86" t="n">
-        <v>544.6333333333333</v>
+        <v>544.5166666666667</v>
       </c>
       <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2618,24 +2878,27 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C87" t="n">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="D87" t="n">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="E87" t="n">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="F87" t="n">
-        <v>2124</v>
+        <v>1889.7368</v>
       </c>
       <c r="G87" t="n">
-        <v>544.65</v>
+        <v>544.6333333333333</v>
       </c>
       <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2656,12 +2919,15 @@
         <v>549</v>
       </c>
       <c r="F88" t="n">
-        <v>777.2094</v>
+        <v>2124</v>
       </c>
       <c r="G88" t="n">
-        <v>544.7166666666667</v>
+        <v>544.65</v>
       </c>
       <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2682,12 +2948,15 @@
         <v>549</v>
       </c>
       <c r="F89" t="n">
-        <v>49.8793</v>
+        <v>777.2094</v>
       </c>
       <c r="G89" t="n">
-        <v>544.7666666666667</v>
+        <v>544.7166666666667</v>
       </c>
       <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2696,24 +2965,27 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C90" t="n">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D90" t="n">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="E90" t="n">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F90" t="n">
-        <v>1355.395</v>
+        <v>49.8793</v>
       </c>
       <c r="G90" t="n">
-        <v>544.85</v>
+        <v>544.7666666666667</v>
       </c>
       <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2722,7 +2994,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C91" t="n">
         <v>551</v>
@@ -2731,15 +3003,18 @@
         <v>551</v>
       </c>
       <c r="E91" t="n">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F91" t="n">
-        <v>225</v>
+        <v>1355.395</v>
       </c>
       <c r="G91" t="n">
-        <v>544.9333333333333</v>
+        <v>544.85</v>
       </c>
       <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2760,12 +3035,15 @@
         <v>551</v>
       </c>
       <c r="F92" t="n">
-        <v>72.6641</v>
+        <v>225</v>
       </c>
       <c r="G92" t="n">
-        <v>545.0166666666667</v>
+        <v>544.9333333333333</v>
       </c>
       <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2774,24 +3052,27 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C93" t="n">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D93" t="n">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="E93" t="n">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F93" t="n">
-        <v>4620.0832</v>
+        <v>72.6641</v>
       </c>
       <c r="G93" t="n">
-        <v>545.15</v>
+        <v>545.0166666666667</v>
       </c>
       <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2800,24 +3081,27 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
+        <v>552</v>
+      </c>
+      <c r="C94" t="n">
         <v>553</v>
       </c>
-      <c r="C94" t="n">
-        <v>558</v>
-      </c>
       <c r="D94" t="n">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="E94" t="n">
         <v>552</v>
       </c>
       <c r="F94" t="n">
-        <v>6653.36168841</v>
+        <v>4620.0832</v>
       </c>
       <c r="G94" t="n">
-        <v>545.3833333333333</v>
+        <v>545.15</v>
       </c>
       <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2826,24 +3110,27 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
+        <v>553</v>
+      </c>
+      <c r="C95" t="n">
         <v>558</v>
       </c>
-      <c r="C95" t="n">
-        <v>560</v>
-      </c>
       <c r="D95" t="n">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E95" t="n">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="F95" t="n">
-        <v>6085.5887</v>
+        <v>6653.36168841</v>
       </c>
       <c r="G95" t="n">
-        <v>545.6333333333333</v>
+        <v>545.3833333333333</v>
       </c>
       <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2852,7 +3139,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C96" t="n">
         <v>560</v>
@@ -2861,15 +3148,18 @@
         <v>560</v>
       </c>
       <c r="E96" t="n">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="F96" t="n">
-        <v>149.3845</v>
+        <v>6085.5887</v>
       </c>
       <c r="G96" t="n">
-        <v>545.8833333333333</v>
+        <v>545.6333333333333</v>
       </c>
       <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2881,22 +3171,25 @@
         <v>560</v>
       </c>
       <c r="C97" t="n">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="D97" t="n">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="E97" t="n">
-        <v>548</v>
+        <v>560</v>
       </c>
       <c r="F97" t="n">
-        <v>3730.79823515</v>
+        <v>149.3845</v>
       </c>
       <c r="G97" t="n">
-        <v>546.2</v>
+        <v>545.8833333333333</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -2904,24 +3197,27 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C98" t="n">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="D98" t="n">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="E98" t="n">
-        <v>562</v>
+        <v>548</v>
       </c>
       <c r="F98" t="n">
-        <v>1427.4626</v>
+        <v>3730.79823515</v>
       </c>
       <c r="G98" t="n">
-        <v>546.55</v>
+        <v>546.2</v>
       </c>
       <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2930,24 +3226,27 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C99" t="n">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D99" t="n">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E99" t="n">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F99" t="n">
-        <v>753.6742</v>
+        <v>1427.4626</v>
       </c>
       <c r="G99" t="n">
-        <v>546.8833333333333</v>
+        <v>546.55</v>
       </c>
       <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2968,12 +3267,15 @@
         <v>563</v>
       </c>
       <c r="F100" t="n">
-        <v>5002.0832</v>
+        <v>753.6742</v>
       </c>
       <c r="G100" t="n">
-        <v>547.2</v>
+        <v>546.8833333333333</v>
       </c>
       <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2994,12 +3296,15 @@
         <v>563</v>
       </c>
       <c r="F101" t="n">
-        <v>101</v>
+        <v>5002.0832</v>
       </c>
       <c r="G101" t="n">
-        <v>547.5333333333333</v>
+        <v>547.2</v>
       </c>
       <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3008,24 +3313,27 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C102" t="n">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D102" t="n">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="E102" t="n">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F102" t="n">
-        <v>3286.83889168</v>
+        <v>101</v>
       </c>
       <c r="G102" t="n">
-        <v>547.9166666666666</v>
+        <v>547.5333333333333</v>
       </c>
       <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3034,24 +3342,27 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C103" t="n">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="D103" t="n">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="E103" t="n">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="F103" t="n">
-        <v>1115.6886</v>
+        <v>3286.83889168</v>
       </c>
       <c r="G103" t="n">
-        <v>548.2833333333333</v>
+        <v>547.9166666666666</v>
       </c>
       <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3060,24 +3371,27 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C104" t="n">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D104" t="n">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="E104" t="n">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="F104" t="n">
-        <v>180</v>
+        <v>1115.6886</v>
       </c>
       <c r="G104" t="n">
-        <v>548.6833333333333</v>
+        <v>548.2833333333333</v>
       </c>
       <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3098,12 +3412,15 @@
         <v>565</v>
       </c>
       <c r="F105" t="n">
-        <v>531.0069999999999</v>
+        <v>180</v>
       </c>
       <c r="G105" t="n">
-        <v>549.0333333333333</v>
+        <v>548.6833333333333</v>
       </c>
       <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3112,24 +3429,27 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>554</v>
+        <v>565</v>
       </c>
       <c r="C106" t="n">
-        <v>554</v>
+        <v>565</v>
       </c>
       <c r="D106" t="n">
-        <v>554</v>
+        <v>565</v>
       </c>
       <c r="E106" t="n">
-        <v>554</v>
+        <v>565</v>
       </c>
       <c r="F106" t="n">
-        <v>7137.046</v>
+        <v>531.0069999999999</v>
       </c>
       <c r="G106" t="n">
-        <v>549.2</v>
+        <v>549.0333333333333</v>
       </c>
       <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3138,24 +3458,27 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="C107" t="n">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="D107" t="n">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="E107" t="n">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="F107" t="n">
-        <v>102</v>
+        <v>7137.046</v>
       </c>
       <c r="G107" t="n">
-        <v>549.5</v>
+        <v>549.2</v>
       </c>
       <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3167,21 +3490,24 @@
         <v>557</v>
       </c>
       <c r="C108" t="n">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="D108" t="n">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="E108" t="n">
         <v>557</v>
       </c>
       <c r="F108" t="n">
-        <v>122.88</v>
+        <v>102</v>
       </c>
       <c r="G108" t="n">
-        <v>549.8166666666667</v>
+        <v>549.5</v>
       </c>
       <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3190,7 +3516,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="C109" t="n">
         <v>561</v>
@@ -3199,15 +3525,18 @@
         <v>561</v>
       </c>
       <c r="E109" t="n">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="F109" t="n">
-        <v>50.3155</v>
+        <v>122.88</v>
       </c>
       <c r="G109" t="n">
-        <v>550.15</v>
+        <v>549.8166666666667</v>
       </c>
       <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3216,24 +3545,27 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="C110" t="n">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="D110" t="n">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="E110" t="n">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="F110" t="n">
-        <v>77.5581</v>
+        <v>50.3155</v>
       </c>
       <c r="G110" t="n">
-        <v>550.4166666666666</v>
+        <v>550.15</v>
       </c>
       <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3242,24 +3574,27 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="C111" t="n">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="D111" t="n">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="E111" t="n">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="F111" t="n">
-        <v>172.6097</v>
+        <v>77.5581</v>
       </c>
       <c r="G111" t="n">
-        <v>550.65</v>
+        <v>550.4166666666666</v>
       </c>
       <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3268,24 +3603,27 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C112" t="n">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="D112" t="n">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="E112" t="n">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="F112" t="n">
-        <v>2024.3988</v>
+        <v>172.6097</v>
       </c>
       <c r="G112" t="n">
-        <v>550.7333333333333</v>
+        <v>550.65</v>
       </c>
       <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3306,12 +3644,15 @@
         <v>556</v>
       </c>
       <c r="F113" t="n">
-        <v>100</v>
+        <v>2024.3988</v>
       </c>
       <c r="G113" t="n">
-        <v>550.9333333333333</v>
+        <v>550.7333333333333</v>
       </c>
       <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3332,12 +3673,15 @@
         <v>556</v>
       </c>
       <c r="F114" t="n">
-        <v>897.6638</v>
+        <v>100</v>
       </c>
       <c r="G114" t="n">
-        <v>551.1333333333333</v>
+        <v>550.9333333333333</v>
       </c>
       <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3346,24 +3690,27 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C115" t="n">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D115" t="n">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="E115" t="n">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="F115" t="n">
-        <v>848.5817</v>
+        <v>897.6638</v>
       </c>
       <c r="G115" t="n">
-        <v>551.3166666666667</v>
+        <v>551.1333333333333</v>
       </c>
       <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3372,24 +3719,27 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C116" t="n">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D116" t="n">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="E116" t="n">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="F116" t="n">
-        <v>486.692</v>
+        <v>848.5817</v>
       </c>
       <c r="G116" t="n">
-        <v>551.5333333333333</v>
+        <v>551.3166666666667</v>
       </c>
       <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3410,12 +3760,15 @@
         <v>554</v>
       </c>
       <c r="F117" t="n">
-        <v>393.2511</v>
+        <v>486.692</v>
       </c>
       <c r="G117" t="n">
-        <v>551.65</v>
+        <v>551.5333333333333</v>
       </c>
       <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3427,21 +3780,24 @@
         <v>554</v>
       </c>
       <c r="C118" t="n">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="D118" t="n">
         <v>554</v>
       </c>
       <c r="E118" t="n">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="F118" t="n">
-        <v>4408.9439</v>
+        <v>393.2511</v>
       </c>
       <c r="G118" t="n">
-        <v>551.7333333333333</v>
+        <v>551.65</v>
       </c>
       <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3450,24 +3806,27 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C119" t="n">
         <v>553</v>
       </c>
       <c r="D119" t="n">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="E119" t="n">
         <v>553</v>
       </c>
       <c r="F119" t="n">
-        <v>1097.5079</v>
+        <v>4408.9439</v>
       </c>
       <c r="G119" t="n">
-        <v>551.9</v>
+        <v>551.7333333333333</v>
       </c>
       <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3479,21 +3838,24 @@
         <v>553</v>
       </c>
       <c r="C120" t="n">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="D120" t="n">
         <v>553</v>
       </c>
       <c r="E120" t="n">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="F120" t="n">
-        <v>500</v>
+        <v>1097.5079</v>
       </c>
       <c r="G120" t="n">
-        <v>552.0666666666667</v>
+        <v>551.9</v>
       </c>
       <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3505,21 +3867,24 @@
         <v>553</v>
       </c>
       <c r="C121" t="n">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D121" t="n">
         <v>553</v>
       </c>
       <c r="E121" t="n">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F121" t="n">
-        <v>10</v>
+        <v>500</v>
       </c>
       <c r="G121" t="n">
-        <v>552.25</v>
+        <v>552.0666666666667</v>
       </c>
       <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3528,24 +3893,27 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C122" t="n">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D122" t="n">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E122" t="n">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F122" t="n">
-        <v>108.3032</v>
+        <v>10</v>
       </c>
       <c r="G122" t="n">
-        <v>552.4666666666667</v>
+        <v>552.25</v>
       </c>
       <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3566,12 +3934,15 @@
         <v>554</v>
       </c>
       <c r="F123" t="n">
-        <v>8.489100000000001</v>
+        <v>108.3032</v>
       </c>
       <c r="G123" t="n">
-        <v>552.6833333333333</v>
+        <v>552.4666666666667</v>
       </c>
       <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3592,12 +3963,15 @@
         <v>554</v>
       </c>
       <c r="F124" t="n">
-        <v>441.3664</v>
+        <v>8.489100000000001</v>
       </c>
       <c r="G124" t="n">
-        <v>552.9166666666666</v>
+        <v>552.6833333333333</v>
       </c>
       <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3618,12 +3992,15 @@
         <v>554</v>
       </c>
       <c r="F125" t="n">
-        <v>427.0754</v>
+        <v>441.3664</v>
       </c>
       <c r="G125" t="n">
-        <v>553.15</v>
+        <v>552.9166666666666</v>
       </c>
       <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3644,12 +4021,15 @@
         <v>554</v>
       </c>
       <c r="F126" t="n">
-        <v>18.7648</v>
+        <v>427.0754</v>
       </c>
       <c r="G126" t="n">
-        <v>553.3833333333333</v>
+        <v>553.15</v>
       </c>
       <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3658,24 +4038,27 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="C127" t="n">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="D127" t="n">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="E127" t="n">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="F127" t="n">
-        <v>946.0001</v>
+        <v>18.7648</v>
       </c>
       <c r="G127" t="n">
-        <v>553.6666666666666</v>
+        <v>553.3833333333333</v>
       </c>
       <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3696,12 +4079,15 @@
         <v>557</v>
       </c>
       <c r="F128" t="n">
-        <v>315.621</v>
+        <v>946.0001</v>
       </c>
       <c r="G128" t="n">
-        <v>553.95</v>
+        <v>553.6666666666666</v>
       </c>
       <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3722,12 +4108,15 @@
         <v>557</v>
       </c>
       <c r="F129" t="n">
-        <v>100</v>
+        <v>315.621</v>
       </c>
       <c r="G129" t="n">
-        <v>554.2666666666667</v>
+        <v>553.95</v>
       </c>
       <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3736,24 +4125,27 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C130" t="n">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="D130" t="n">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="E130" t="n">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="F130" t="n">
-        <v>1160.1483</v>
+        <v>100</v>
       </c>
       <c r="G130" t="n">
-        <v>554.5</v>
+        <v>554.2666666666667</v>
       </c>
       <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3762,24 +4154,27 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C131" t="n">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D131" t="n">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="E131" t="n">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="F131" t="n">
-        <v>226.4484</v>
+        <v>1160.1483</v>
       </c>
       <c r="G131" t="n">
-        <v>554.7166666666667</v>
+        <v>554.5</v>
       </c>
       <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3788,24 +4183,27 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C132" t="n">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D132" t="n">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E132" t="n">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F132" t="n">
-        <v>125.0411</v>
+        <v>226.4484</v>
       </c>
       <c r="G132" t="n">
-        <v>554.95</v>
+        <v>554.7166666666667</v>
       </c>
       <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3826,12 +4224,15 @@
         <v>559</v>
       </c>
       <c r="F133" t="n">
-        <v>2352.912</v>
+        <v>125.0411</v>
       </c>
       <c r="G133" t="n">
-        <v>555.1666666666666</v>
+        <v>554.95</v>
       </c>
       <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3843,21 +4244,24 @@
         <v>559</v>
       </c>
       <c r="C134" t="n">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="D134" t="n">
         <v>559</v>
       </c>
       <c r="E134" t="n">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="F134" t="n">
-        <v>2983.2829</v>
+        <v>2352.912</v>
       </c>
       <c r="G134" t="n">
-        <v>555.3</v>
+        <v>555.1666666666666</v>
       </c>
       <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3866,24 +4270,27 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="C135" t="n">
         <v>556</v>
       </c>
       <c r="D135" t="n">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="E135" t="n">
         <v>556</v>
       </c>
       <c r="F135" t="n">
-        <v>774.811</v>
+        <v>2983.2829</v>
       </c>
       <c r="G135" t="n">
-        <v>555.4166666666666</v>
+        <v>555.3</v>
       </c>
       <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3892,24 +4299,27 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C136" t="n">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D136" t="n">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="E136" t="n">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="F136" t="n">
-        <v>194.2</v>
+        <v>774.811</v>
       </c>
       <c r="G136" t="n">
-        <v>555.55</v>
+        <v>555.4166666666666</v>
       </c>
       <c r="H136" t="n">
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3930,12 +4340,15 @@
         <v>558</v>
       </c>
       <c r="F137" t="n">
-        <v>157.2892</v>
+        <v>194.2</v>
       </c>
       <c r="G137" t="n">
-        <v>555.6833333333333</v>
+        <v>555.55</v>
       </c>
       <c r="H137" t="n">
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3944,24 +4357,27 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C138" t="n">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D138" t="n">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E138" t="n">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F138" t="n">
-        <v>2025.3962</v>
+        <v>157.2892</v>
       </c>
       <c r="G138" t="n">
-        <v>555.8666666666667</v>
+        <v>555.6833333333333</v>
       </c>
       <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3973,21 +4389,24 @@
         <v>560</v>
       </c>
       <c r="C139" t="n">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D139" t="n">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E139" t="n">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F139" t="n">
-        <v>5438.7063</v>
+        <v>2025.3962</v>
       </c>
       <c r="G139" t="n">
-        <v>556.05</v>
+        <v>555.8666666666667</v>
       </c>
       <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3996,24 +4415,27 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C140" t="n">
         <v>561</v>
       </c>
       <c r="D140" t="n">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E140" t="n">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F140" t="n">
-        <v>1338.5788</v>
+        <v>5438.7063</v>
       </c>
       <c r="G140" t="n">
-        <v>556.25</v>
+        <v>556.05</v>
       </c>
       <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4022,24 +4444,27 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C141" t="n">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D141" t="n">
         <v>562</v>
       </c>
       <c r="E141" t="n">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F141" t="n">
-        <v>1433.9309</v>
+        <v>1338.5788</v>
       </c>
       <c r="G141" t="n">
-        <v>556.45</v>
+        <v>556.25</v>
       </c>
       <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4060,12 +4485,15 @@
         <v>562</v>
       </c>
       <c r="F142" t="n">
-        <v>1058</v>
+        <v>1433.9309</v>
       </c>
       <c r="G142" t="n">
-        <v>556.6666666666666</v>
+        <v>556.45</v>
       </c>
       <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4086,12 +4514,15 @@
         <v>562</v>
       </c>
       <c r="F143" t="n">
-        <v>1049.5423</v>
+        <v>1058</v>
       </c>
       <c r="G143" t="n">
-        <v>556.9166666666666</v>
+        <v>556.6666666666666</v>
       </c>
       <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4112,12 +4543,15 @@
         <v>562</v>
       </c>
       <c r="F144" t="n">
-        <v>802</v>
+        <v>1049.5423</v>
       </c>
       <c r="G144" t="n">
-        <v>557.1833333333333</v>
+        <v>556.9166666666666</v>
       </c>
       <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4138,12 +4572,15 @@
         <v>562</v>
       </c>
       <c r="F145" t="n">
-        <v>18.5371</v>
+        <v>802</v>
       </c>
       <c r="G145" t="n">
-        <v>557.4</v>
+        <v>557.1833333333333</v>
       </c>
       <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4164,532 +4601,15 @@
         <v>562</v>
       </c>
       <c r="F146" t="n">
-        <v>270.913</v>
+        <v>18.5371</v>
       </c>
       <c r="G146" t="n">
-        <v>557.5833333333334</v>
+        <v>557.4</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>562</v>
-      </c>
-      <c r="C147" t="n">
-        <v>562</v>
-      </c>
-      <c r="D147" t="n">
-        <v>562</v>
-      </c>
-      <c r="E147" t="n">
-        <v>562</v>
-      </c>
-      <c r="F147" t="n">
-        <v>858.3674</v>
-      </c>
-      <c r="G147" t="n">
-        <v>557.8</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>562</v>
-      </c>
-      <c r="C148" t="n">
-        <v>562</v>
-      </c>
-      <c r="D148" t="n">
-        <v>562</v>
-      </c>
-      <c r="E148" t="n">
-        <v>562</v>
-      </c>
-      <c r="F148" t="n">
-        <v>430.7143</v>
-      </c>
-      <c r="G148" t="n">
-        <v>558.0166666666667</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>562</v>
-      </c>
-      <c r="C149" t="n">
-        <v>562</v>
-      </c>
-      <c r="D149" t="n">
-        <v>562</v>
-      </c>
-      <c r="E149" t="n">
-        <v>562</v>
-      </c>
-      <c r="F149" t="n">
-        <v>112.3717</v>
-      </c>
-      <c r="G149" t="n">
-        <v>558.2333333333333</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>562</v>
-      </c>
-      <c r="C150" t="n">
-        <v>562</v>
-      </c>
-      <c r="D150" t="n">
-        <v>562</v>
-      </c>
-      <c r="E150" t="n">
-        <v>562</v>
-      </c>
-      <c r="F150" t="n">
-        <v>443.9419</v>
-      </c>
-      <c r="G150" t="n">
-        <v>558.4166666666666</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>562</v>
-      </c>
-      <c r="C151" t="n">
-        <v>562</v>
-      </c>
-      <c r="D151" t="n">
-        <v>562</v>
-      </c>
-      <c r="E151" t="n">
-        <v>562</v>
-      </c>
-      <c r="F151" t="n">
-        <v>673</v>
-      </c>
-      <c r="G151" t="n">
-        <v>558.6</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>562</v>
-      </c>
-      <c r="C152" t="n">
-        <v>565</v>
-      </c>
-      <c r="D152" t="n">
-        <v>565</v>
-      </c>
-      <c r="E152" t="n">
-        <v>562</v>
-      </c>
-      <c r="F152" t="n">
-        <v>24.4035</v>
-      </c>
-      <c r="G152" t="n">
-        <v>558.8333333333334</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>562</v>
-      </c>
-      <c r="C153" t="n">
-        <v>562</v>
-      </c>
-      <c r="D153" t="n">
-        <v>562</v>
-      </c>
-      <c r="E153" t="n">
-        <v>562</v>
-      </c>
-      <c r="F153" t="n">
-        <v>2701.3324</v>
-      </c>
-      <c r="G153" t="n">
-        <v>558.9833333333333</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>562</v>
-      </c>
-      <c r="C154" t="n">
-        <v>563</v>
-      </c>
-      <c r="D154" t="n">
-        <v>563</v>
-      </c>
-      <c r="E154" t="n">
-        <v>562</v>
-      </c>
-      <c r="F154" t="n">
-        <v>447</v>
-      </c>
-      <c r="G154" t="n">
-        <v>559.0666666666667</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>563</v>
-      </c>
-      <c r="C155" t="n">
-        <v>562</v>
-      </c>
-      <c r="D155" t="n">
-        <v>563</v>
-      </c>
-      <c r="E155" t="n">
-        <v>562</v>
-      </c>
-      <c r="F155" t="n">
-        <v>1584.001</v>
-      </c>
-      <c r="G155" t="n">
-        <v>559.1</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>563</v>
-      </c>
-      <c r="C156" t="n">
-        <v>561</v>
-      </c>
-      <c r="D156" t="n">
-        <v>563</v>
-      </c>
-      <c r="E156" t="n">
-        <v>561</v>
-      </c>
-      <c r="F156" t="n">
-        <v>1445.3607</v>
-      </c>
-      <c r="G156" t="n">
-        <v>559.1166666666667</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>562</v>
-      </c>
-      <c r="C157" t="n">
-        <v>564</v>
-      </c>
-      <c r="D157" t="n">
-        <v>564</v>
-      </c>
-      <c r="E157" t="n">
-        <v>561</v>
-      </c>
-      <c r="F157" t="n">
-        <v>1271.6742</v>
-      </c>
-      <c r="G157" t="n">
-        <v>559.1166666666667</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>564</v>
-      </c>
-      <c r="C158" t="n">
-        <v>564</v>
-      </c>
-      <c r="D158" t="n">
-        <v>564</v>
-      </c>
-      <c r="E158" t="n">
-        <v>561</v>
-      </c>
-      <c r="F158" t="n">
-        <v>14.0602</v>
-      </c>
-      <c r="G158" t="n">
-        <v>559.15</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>561</v>
-      </c>
-      <c r="C159" t="n">
-        <v>557</v>
-      </c>
-      <c r="D159" t="n">
-        <v>564</v>
-      </c>
-      <c r="E159" t="n">
-        <v>557</v>
-      </c>
-      <c r="F159" t="n">
-        <v>3943.7567</v>
-      </c>
-      <c r="G159" t="n">
-        <v>559.05</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>562</v>
-      </c>
-      <c r="C160" t="n">
-        <v>562</v>
-      </c>
-      <c r="D160" t="n">
-        <v>562</v>
-      </c>
-      <c r="E160" t="n">
-        <v>559</v>
-      </c>
-      <c r="F160" t="n">
-        <v>23.83598861</v>
-      </c>
-      <c r="G160" t="n">
-        <v>559.0333333333333</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>558</v>
-      </c>
-      <c r="C161" t="n">
-        <v>558</v>
-      </c>
-      <c r="D161" t="n">
-        <v>562</v>
-      </c>
-      <c r="E161" t="n">
-        <v>558</v>
-      </c>
-      <c r="F161" t="n">
-        <v>31.00863807</v>
-      </c>
-      <c r="G161" t="n">
-        <v>558.95</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>562</v>
-      </c>
-      <c r="C162" t="n">
-        <v>558</v>
-      </c>
-      <c r="D162" t="n">
-        <v>563</v>
-      </c>
-      <c r="E162" t="n">
-        <v>558</v>
-      </c>
-      <c r="F162" t="n">
-        <v>34.64666335</v>
-      </c>
-      <c r="G162" t="n">
-        <v>558.8333333333334</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>562</v>
-      </c>
-      <c r="C163" t="n">
-        <v>558</v>
-      </c>
-      <c r="D163" t="n">
-        <v>562</v>
-      </c>
-      <c r="E163" t="n">
-        <v>558</v>
-      </c>
-      <c r="F163" t="n">
-        <v>8.548</v>
-      </c>
-      <c r="G163" t="n">
-        <v>558.75</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>558</v>
-      </c>
-      <c r="C164" t="n">
-        <v>558</v>
-      </c>
-      <c r="D164" t="n">
-        <v>558</v>
-      </c>
-      <c r="E164" t="n">
-        <v>558</v>
-      </c>
-      <c r="F164" t="n">
-        <v>1845.2317</v>
-      </c>
-      <c r="G164" t="n">
-        <v>558.6333333333333</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>558</v>
-      </c>
-      <c r="C165" t="n">
-        <v>558</v>
-      </c>
-      <c r="D165" t="n">
-        <v>558</v>
-      </c>
-      <c r="E165" t="n">
-        <v>558</v>
-      </c>
-      <c r="F165" t="n">
-        <v>9.7683</v>
-      </c>
-      <c r="G165" t="n">
-        <v>558.5166666666667</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>558</v>
-      </c>
-      <c r="C166" t="n">
-        <v>558</v>
-      </c>
-      <c r="D166" t="n">
-        <v>558</v>
-      </c>
-      <c r="E166" t="n">
-        <v>558</v>
-      </c>
-      <c r="F166" t="n">
-        <v>100</v>
-      </c>
-      <c r="G166" t="n">
-        <v>558.5833333333334</v>
-      </c>
-      <c r="H166" t="n">
+      <c r="I146" t="n">
         <v>0</v>
       </c>
     </row>
